--- a/data/trans_orig/P39C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6CDAD46-3CF5-4857-89AB-08FC3491ED52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FED74929-6B58-4091-A6B5-7BA674A2ED71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{278F7350-0809-4AC9-ABF7-08187DFA0E5C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B9A25829-BCCD-4DCA-88B3-AD0C0989F746}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="753">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2015 (Tasa respuesta: 81,21%)</t>
   </si>
@@ -78,2185 +78,2224 @@
     <t>6,15%</t>
   </si>
   <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>Entre uno y tres años</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>Entre uno y tres años</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>22,28%</t>
   </si>
   <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
 </sst>
 </file>
@@ -2668,7 +2707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC4D3E3-54F1-4E25-8C94-63DFA6071DF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EB95DE-3EED-4DEF-AD8A-49516191A343}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3334,13 +3373,13 @@
         <v>118053</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,7 +3435,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3408,13 +3447,13 @@
         <v>37142</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -3423,13 +3462,13 @@
         <v>28369</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -3438,13 +3477,13 @@
         <v>65511</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3498,13 @@
         <v>92153</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -3474,13 +3513,13 @@
         <v>83573</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>179</v>
@@ -3489,13 +3528,13 @@
         <v>175726</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3549,13 @@
         <v>91800</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>115</v>
@@ -3525,13 +3564,13 @@
         <v>118424</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>212</v>
@@ -3540,13 +3579,13 @@
         <v>210224</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3600,13 @@
         <v>26263</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -3576,13 +3615,13 @@
         <v>23723</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -3591,13 +3630,13 @@
         <v>49985</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3651,13 @@
         <v>25772</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -3627,13 +3666,13 @@
         <v>45145</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>71</v>
@@ -3642,13 +3681,13 @@
         <v>70917</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,7 +3743,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3716,13 +3755,13 @@
         <v>43387</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -3731,13 +3770,13 @@
         <v>34927</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -3746,13 +3785,13 @@
         <v>78314</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3806,13 @@
         <v>67470</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -3782,13 +3821,13 @@
         <v>70392</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>128</v>
@@ -3797,13 +3836,13 @@
         <v>137862</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3857,13 @@
         <v>91094</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>72</v>
@@ -3833,13 +3872,13 @@
         <v>78733</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>158</v>
@@ -3848,13 +3887,13 @@
         <v>169826</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3908,13 @@
         <v>43576</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -3884,13 +3923,13 @@
         <v>51121</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>88</v>
@@ -3899,13 +3938,13 @@
         <v>94696</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3959,13 @@
         <v>93830</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>109</v>
@@ -3935,13 +3974,13 @@
         <v>118836</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>202</v>
@@ -3950,13 +3989,13 @@
         <v>212665</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,7 +4051,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4024,13 +4063,13 @@
         <v>30796</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -4039,13 +4078,13 @@
         <v>23167</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>53</v>
@@ -4054,13 +4093,13 @@
         <v>53963</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4114,13 @@
         <v>36559</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -4090,13 +4129,13 @@
         <v>51065</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>89</v>
@@ -4105,13 +4144,13 @@
         <v>87624</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4165,13 @@
         <v>30245</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>45</v>
@@ -4141,13 +4180,13 @@
         <v>42547</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>75</v>
@@ -4156,13 +4195,13 @@
         <v>72792</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4216,13 @@
         <v>30415</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>37</v>
@@ -4192,13 +4231,13 @@
         <v>37178</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>69</v>
@@ -4207,13 +4246,13 @@
         <v>67593</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,10 +4267,10 @@
         <v>30644</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>229</v>
@@ -4350,10 +4389,10 @@
         <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>139</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>51</v>
@@ -4362,13 +4401,13 @@
         <v>53317</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4422,13 @@
         <v>43792</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>54</v>
@@ -4398,13 +4437,13 @@
         <v>57809</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M35" s="7">
         <v>98</v>
@@ -4413,13 +4452,13 @@
         <v>101601</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,13 +4473,13 @@
         <v>54719</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H36" s="7">
         <v>47</v>
@@ -4449,13 +4488,13 @@
         <v>47531</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M36" s="7">
         <v>102</v>
@@ -4464,13 +4503,13 @@
         <v>102249</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4524,13 @@
         <v>34590</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H37" s="7">
         <v>45</v>
@@ -4500,13 +4539,13 @@
         <v>48377</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>78</v>
@@ -4515,13 +4554,13 @@
         <v>82967</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,13 +4575,13 @@
         <v>43624</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>60</v>
@@ -4551,13 +4590,13 @@
         <v>62671</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M38" s="7">
         <v>103</v>
@@ -4566,13 +4605,13 @@
         <v>106296</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,7 +4667,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4640,13 +4679,13 @@
         <v>37987</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H40" s="7">
         <v>40</v>
@@ -4655,13 +4694,13 @@
         <v>40717</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M40" s="7">
         <v>73</v>
@@ -4670,13 +4709,13 @@
         <v>78704</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4730,13 @@
         <v>105459</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>285</v>
+        <v>169</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="H41" s="7">
         <v>97</v>
@@ -4706,13 +4745,13 @@
         <v>103421</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M41" s="7">
         <v>189</v>
@@ -4721,13 +4760,13 @@
         <v>208880</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4781,13 @@
         <v>106234</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H42" s="7">
         <v>138</v>
@@ -4757,13 +4796,13 @@
         <v>150602</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M42" s="7">
         <v>231</v>
@@ -4772,13 +4811,13 @@
         <v>256835</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4832,13 @@
         <v>52683</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="H43" s="7">
         <v>56</v>
@@ -4808,13 +4847,13 @@
         <v>60687</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M43" s="7">
         <v>103</v>
@@ -4823,13 +4862,13 @@
         <v>113370</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4883,13 @@
         <v>86570</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H44" s="7">
         <v>110</v>
@@ -4859,13 +4898,13 @@
         <v>125856</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="M44" s="7">
         <v>187</v>
@@ -4874,13 +4913,13 @@
         <v>212426</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,7 +4975,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4948,13 +4987,13 @@
         <v>67676</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H46" s="7">
         <v>49</v>
@@ -4963,13 +5002,13 @@
         <v>51120</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M46" s="7">
         <v>114</v>
@@ -4978,13 +5017,13 @@
         <v>118796</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +5038,13 @@
         <v>174028</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H47" s="7">
         <v>185</v>
@@ -5014,13 +5053,13 @@
         <v>196184</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="M47" s="7">
         <v>350</v>
@@ -5029,13 +5068,13 @@
         <v>370213</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5089,13 @@
         <v>205518</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>118</v>
+        <v>342</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H48" s="7">
         <v>233</v>
@@ -5065,13 +5104,13 @@
         <v>257507</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="M48" s="7">
         <v>436</v>
@@ -5080,13 +5119,13 @@
         <v>463025</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5140,13 @@
         <v>99499</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H49" s="7">
         <v>103</v>
@@ -5116,13 +5155,13 @@
         <v>117263</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="M49" s="7">
         <v>197</v>
@@ -5131,13 +5170,13 @@
         <v>216762</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>346</v>
+        <v>159</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,13 +5191,13 @@
         <v>94114</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="H50" s="7">
         <v>104</v>
@@ -5167,13 +5206,13 @@
         <v>119686</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>28</v>
+        <v>362</v>
       </c>
       <c r="M50" s="7">
         <v>196</v>
@@ -5182,13 +5221,13 @@
         <v>213800</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,7 +5239,7 @@
         <v>619</v>
       </c>
       <c r="D51" s="7">
-        <v>640835</v>
+        <v>640836</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>60</v>
@@ -5256,13 +5295,13 @@
         <v>312194</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>356</v>
+        <v>199</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H52" s="7">
         <v>244</v>
@@ -5271,13 +5310,13 @@
         <v>252159</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>319</v>
+        <v>367</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>67</v>
+        <v>369</v>
       </c>
       <c r="M52" s="7">
         <v>540</v>
@@ -5286,13 +5325,13 @@
         <v>564353</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5346,13 @@
         <v>725106</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>29</v>
+        <v>373</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H53" s="7">
         <v>743</v>
@@ -5322,13 +5361,13 @@
         <v>779799</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M53" s="7">
         <v>1434</v>
@@ -5337,13 +5376,13 @@
         <v>1504905</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>316</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,28 +5397,28 @@
         <v>767665</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="H54" s="7">
         <v>854</v>
       </c>
       <c r="I54" s="7">
-        <v>915148</v>
+        <v>915147</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="M54" s="7">
         <v>1594</v>
@@ -5388,13 +5427,13 @@
         <v>1682812</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5448,13 @@
         <v>364084</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="H55" s="7">
         <v>394</v>
@@ -5424,13 +5463,13 @@
         <v>429020</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>383</v>
+        <v>161</v>
       </c>
       <c r="M55" s="7">
         <v>742</v>
@@ -5439,13 +5478,13 @@
         <v>793104</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>147</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5499,13 @@
         <v>469833</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="H56" s="7">
         <v>575</v>
@@ -5475,13 +5514,13 @@
         <v>630977</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M56" s="7">
         <v>1025</v>
@@ -5490,13 +5529,13 @@
         <v>1100810</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,7 +5562,7 @@
         <v>2810</v>
       </c>
       <c r="I57" s="7">
-        <v>3007103</v>
+        <v>3007102</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>60</v>
@@ -5552,7 +5591,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -5576,7 +5615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC7C07E-5590-420E-9DC3-BA34062BEABD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E34EE15-5E88-4AB1-83B4-4B8E013C589E}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5593,7 +5632,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5700,13 +5739,13 @@
         <v>13431</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5715,13 +5754,13 @@
         <v>4839</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -5730,13 +5769,13 @@
         <v>18270</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5790,13 @@
         <v>66624</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -5766,13 +5805,13 @@
         <v>64131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="M5" s="7">
         <v>216</v>
@@ -5781,13 +5820,13 @@
         <v>130755</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>426</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5841,13 @@
         <v>56950</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>204</v>
+        <v>308</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="H6" s="7">
         <v>148</v>
@@ -5817,13 +5856,13 @@
         <v>73300</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="M6" s="7">
         <v>210</v>
@@ -5832,13 +5871,13 @@
         <v>130250</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5892,13 @@
         <v>42691</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="H7" s="7">
         <v>82</v>
@@ -5868,13 +5907,13 @@
         <v>39872</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>439</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="M7" s="7">
         <v>136</v>
@@ -5883,13 +5922,13 @@
         <v>82563</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5943,13 @@
         <v>73154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>289</v>
+        <v>445</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="H8" s="7">
         <v>165</v>
@@ -5922,10 +5961,10 @@
         <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="M8" s="7">
         <v>266</v>
@@ -5934,13 +5973,13 @@
         <v>158090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6047,13 @@
         <v>63830</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>454</v>
       </c>
       <c r="H10" s="7">
         <v>102</v>
@@ -6023,13 +6062,13 @@
         <v>73970</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -6038,13 +6077,13 @@
         <v>137800</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6098,13 @@
         <v>162917</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="H11" s="7">
         <v>261</v>
@@ -6074,13 +6113,13 @@
         <v>193130</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="M11" s="7">
         <v>394</v>
@@ -6089,13 +6128,13 @@
         <v>356047</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6149,13 @@
         <v>84614</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="H12" s="7">
         <v>129</v>
@@ -6125,13 +6164,13 @@
         <v>96103</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="M12" s="7">
         <v>198</v>
@@ -6140,13 +6179,13 @@
         <v>180717</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>408</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,13 +6200,13 @@
         <v>30370</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -6179,10 +6218,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -6191,13 +6230,13 @@
         <v>59052</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>465</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,13 +6251,13 @@
         <v>48516</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -6227,13 +6266,13 @@
         <v>74380</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>140</v>
@@ -6242,13 +6281,13 @@
         <v>122897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,7 +6343,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6316,13 +6355,13 @@
         <v>31966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -6331,13 +6370,13 @@
         <v>28557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -6349,10 +6388,10 @@
         <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6406,13 @@
         <v>54589</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>480</v>
+        <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>482</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -6382,13 +6421,13 @@
         <v>65505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -6397,13 +6436,13 @@
         <v>120095</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>486</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>487</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,13 +6457,13 @@
         <v>94313</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="H18" s="7">
         <v>163</v>
@@ -6433,13 +6472,13 @@
         <v>113028</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="M18" s="7">
         <v>268</v>
@@ -6448,13 +6487,13 @@
         <v>207340</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>216</v>
+        <v>514</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6508,13 @@
         <v>41547</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -6484,13 +6523,13 @@
         <v>70051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>500</v>
+        <v>401</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>502</v>
+        <v>27</v>
       </c>
       <c r="M19" s="7">
         <v>159</v>
@@ -6499,13 +6538,13 @@
         <v>111598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>452</v>
+        <v>520</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6559,13 @@
         <v>79338</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>295</v>
+        <v>525</v>
       </c>
       <c r="H20" s="7">
         <v>132</v>
@@ -6535,13 +6574,13 @@
         <v>86097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="M20" s="7">
         <v>229</v>
@@ -6550,13 +6589,13 @@
         <v>165435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6612,7 +6651,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6624,13 +6663,13 @@
         <v>23331</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -6639,13 +6678,13 @@
         <v>33869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -6654,13 +6693,13 @@
         <v>57200</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>519</v>
+        <v>244</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,13 +6714,13 @@
         <v>60078</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>540</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="H23" s="7">
         <v>104</v>
@@ -6690,13 +6729,13 @@
         <v>73628</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>545</v>
       </c>
       <c r="M23" s="7">
         <v>158</v>
@@ -6705,13 +6744,13 @@
         <v>133706</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>526</v>
+        <v>274</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6765,13 @@
         <v>61936</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="H24" s="7">
         <v>129</v>
@@ -6741,13 +6780,13 @@
         <v>91647</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>294</v>
+        <v>552</v>
       </c>
       <c r="M24" s="7">
         <v>180</v>
@@ -6756,13 +6795,13 @@
         <v>153583</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>534</v>
+        <v>407</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>369</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,13 +6816,13 @@
         <v>53322</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>536</v>
+        <v>269</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -6792,13 +6831,13 @@
         <v>48195</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -6807,13 +6846,13 @@
         <v>101518</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6867,13 @@
         <v>70994</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>229</v>
+        <v>561</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="H26" s="7">
         <v>188</v>
@@ -6843,13 +6882,13 @@
         <v>119222</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>546</v>
+        <v>29</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="M26" s="7">
         <v>267</v>
@@ -6858,13 +6897,13 @@
         <v>190217</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>548</v>
+        <v>337</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,7 +6959,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6932,13 +6971,13 @@
         <v>7965</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>99</v>
+        <v>570</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -6947,13 +6986,13 @@
         <v>9073</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -6962,13 +7001,13 @@
         <v>17038</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>555</v>
+        <v>66</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,13 +7022,13 @@
         <v>29909</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>558</v>
+        <v>260</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="H29" s="7">
         <v>74</v>
@@ -6998,13 +7037,13 @@
         <v>35004</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
@@ -7013,13 +7052,13 @@
         <v>64912</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,13 +7073,13 @@
         <v>79122</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="H30" s="7">
         <v>184</v>
@@ -7049,13 +7088,13 @@
         <v>82757</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="M30" s="7">
         <v>298</v>
@@ -7064,13 +7103,13 @@
         <v>161879</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,13 +7124,13 @@
         <v>27123</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="H31" s="7">
         <v>101</v>
@@ -7100,13 +7139,13 @@
         <v>43667</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>564</v>
+        <v>597</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="M31" s="7">
         <v>141</v>
@@ -7115,13 +7154,13 @@
         <v>70790</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,13 +7175,13 @@
         <v>15303</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>585</v>
+        <v>396</v>
       </c>
       <c r="H32" s="7">
         <v>72</v>
@@ -7151,13 +7190,13 @@
         <v>31849</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>588</v>
+        <v>193</v>
       </c>
       <c r="M32" s="7">
         <v>96</v>
@@ -7166,13 +7205,13 @@
         <v>47151</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,13 +7279,13 @@
         <v>35103</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>592</v>
+        <v>142</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
@@ -7255,13 +7294,13 @@
         <v>24897</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>108</v>
+        <v>612</v>
       </c>
       <c r="M34" s="7">
         <v>68</v>
@@ -7270,13 +7309,13 @@
         <v>60000</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>160</v>
+        <v>614</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>597</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7291,13 +7330,13 @@
         <v>62850</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>344</v>
+        <v>616</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="H35" s="7">
         <v>79</v>
@@ -7309,10 +7348,10 @@
         <v>233</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="M35" s="7">
         <v>145</v>
@@ -7321,13 +7360,13 @@
         <v>115316</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7342,13 +7381,13 @@
         <v>68684</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="H36" s="7">
         <v>121</v>
@@ -7357,13 +7396,13 @@
         <v>73701</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="M36" s="7">
         <v>216</v>
@@ -7372,13 +7411,13 @@
         <v>142385</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>259</v>
+        <v>628</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,13 +7432,13 @@
         <v>41393</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>383</v>
+        <v>631</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="H37" s="7">
         <v>90</v>
@@ -7408,13 +7447,13 @@
         <v>46648</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>221</v>
+        <v>635</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>457</v>
+        <v>636</v>
       </c>
       <c r="M37" s="7">
         <v>157</v>
@@ -7423,13 +7462,13 @@
         <v>88041</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>381</v>
+        <v>491</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>616</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,13 +7483,13 @@
         <v>56874</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>617</v>
+        <v>638</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="H38" s="7">
         <v>130</v>
@@ -7459,13 +7498,13 @@
         <v>68220</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="M38" s="7">
         <v>220</v>
@@ -7474,13 +7513,13 @@
         <v>125094</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,7 +7575,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7548,13 +7587,13 @@
         <v>29138</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="H40" s="7">
         <v>42</v>
@@ -7563,13 +7602,13 @@
         <v>33061</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="M40" s="7">
         <v>75</v>
@@ -7578,13 +7617,13 @@
         <v>62199</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>460</v>
+        <v>653</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>15</v>
+        <v>655</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,13 +7638,13 @@
         <v>91100</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="H41" s="7">
         <v>156</v>
@@ -7614,13 +7653,13 @@
         <v>115756</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>504</v>
+        <v>660</v>
       </c>
       <c r="M41" s="7">
         <v>237</v>
@@ -7629,13 +7668,13 @@
         <v>206856</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>637</v>
+        <v>662</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>638</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,13 +7689,13 @@
         <v>173371</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="H42" s="7">
         <v>266</v>
@@ -7665,13 +7704,13 @@
         <v>303792</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="M42" s="7">
         <v>435</v>
@@ -7680,13 +7719,13 @@
         <v>477163</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7740,13 @@
         <v>91069</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>287</v>
+        <v>518</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>648</v>
+        <v>357</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>579</v>
+        <v>470</v>
       </c>
       <c r="H43" s="7">
         <v>151</v>
@@ -7716,13 +7755,13 @@
         <v>103871</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>651</v>
+        <v>546</v>
       </c>
       <c r="M43" s="7">
         <v>250</v>
@@ -7731,13 +7770,13 @@
         <v>194940</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>356</v>
+        <v>673</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,13 +7791,13 @@
         <v>121418</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="H44" s="7">
         <v>255</v>
@@ -7767,13 +7806,13 @@
         <v>175828</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>329</v>
+        <v>679</v>
       </c>
       <c r="M44" s="7">
         <v>381</v>
@@ -7782,13 +7821,13 @@
         <v>297246</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>657</v>
+        <v>47</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>658</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,7 +7883,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7856,13 +7895,13 @@
         <v>17737</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
       <c r="H46" s="7">
         <v>30</v>
@@ -7871,13 +7910,13 @@
         <v>24709</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>662</v>
+        <v>683</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>663</v>
+        <v>684</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>664</v>
+        <v>685</v>
       </c>
       <c r="M46" s="7">
         <v>49</v>
@@ -7886,13 +7925,13 @@
         <v>42446</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>665</v>
+        <v>686</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>666</v>
+        <v>687</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>667</v>
+        <v>688</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7907,13 +7946,13 @@
         <v>158523</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>668</v>
+        <v>689</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>669</v>
+        <v>59</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="H47" s="7">
         <v>201</v>
@@ -7922,13 +7961,13 @@
         <v>157904</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>672</v>
+        <v>692</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="M47" s="7">
         <v>356</v>
@@ -7937,13 +7976,13 @@
         <v>316427</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>676</v>
+        <v>696</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7958,13 +7997,13 @@
         <v>166717</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>677</v>
+        <v>697</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>678</v>
+        <v>337</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="H48" s="7">
         <v>286</v>
@@ -7973,13 +8012,13 @@
         <v>208081</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="M48" s="7">
         <v>466</v>
@@ -7988,13 +8027,13 @@
         <v>374797</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8009,13 +8048,13 @@
         <v>118956</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="H49" s="7">
         <v>192</v>
@@ -8024,13 +8063,13 @@
         <v>134667</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>362</v>
+        <v>710</v>
       </c>
       <c r="M49" s="7">
         <v>327</v>
@@ -8039,13 +8078,13 @@
         <v>253623</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>692</v>
+        <v>712</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8060,13 +8099,13 @@
         <v>28792</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>694</v>
+        <v>714</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="H50" s="7">
         <v>94</v>
@@ -8075,13 +8114,13 @@
         <v>69956</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>697</v>
+        <v>717</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>698</v>
+        <v>659</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="M50" s="7">
         <v>125</v>
@@ -8090,13 +8129,13 @@
         <v>98747</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>105</v>
+        <v>721</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8164,13 +8203,13 @@
         <v>222500</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>304</v>
+        <v>723</v>
       </c>
       <c r="H52" s="7">
         <v>304</v>
@@ -8179,13 +8218,13 @@
         <v>232976</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>704</v>
+        <v>287</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="M52" s="7">
         <v>518</v>
@@ -8194,13 +8233,13 @@
         <v>455475</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,13 +8254,13 @@
         <v>686590</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>711</v>
+        <v>321</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="H53" s="7">
         <v>1090</v>
@@ -8230,13 +8269,13 @@
         <v>757524</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="M53" s="7">
         <v>1770</v>
@@ -8245,13 +8284,13 @@
         <v>1444115</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8266,13 +8305,13 @@
         <v>785706</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="H54" s="7">
         <v>1426</v>
@@ -8281,13 +8320,13 @@
         <v>1042409</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>721</v>
+        <v>375</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="M54" s="7">
         <v>2271</v>
@@ -8296,13 +8335,13 @@
         <v>1828115</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8317,13 +8356,13 @@
         <v>446471</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>726</v>
+        <v>154</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="H55" s="7">
         <v>847</v>
@@ -8332,13 +8371,13 @@
         <v>515653</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>167</v>
+        <v>746</v>
       </c>
       <c r="M55" s="7">
         <v>1367</v>
@@ -8347,13 +8386,13 @@
         <v>962124</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8368,13 +8407,13 @@
         <v>494388</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>558</v>
+        <v>260</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>734</v>
+        <v>207</v>
       </c>
       <c r="H56" s="7">
         <v>1134</v>
@@ -8383,13 +8422,13 @@
         <v>710489</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>735</v>
+        <v>642</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>691</v>
+        <v>336</v>
       </c>
       <c r="M56" s="7">
         <v>1724</v>
@@ -8398,13 +8437,13 @@
         <v>1204877</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>737</v>
+        <v>676</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>738</v>
+        <v>460</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8460,7 +8499,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FED74929-6B58-4091-A6B5-7BA674A2ED71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FCE3791-9158-42DB-B70D-FC900F877E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B9A25829-BCCD-4DCA-88B3-AD0C0989F746}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2947E482-0C8E-4233-A320-BE3D4CE439F6}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="753">
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2015 (Tasa respuesta: 81,21%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="752">
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2016 (Tasa respuesta: 81,21%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,2224 +75,2221 @@
     <t>10,34%</t>
   </si>
   <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>Entre uno y tres años</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>Entre uno y tres años</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
   </si>
   <si>
     <t>27,69%</t>
   </si>
   <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
   </si>
   <si>
     <t>27,98%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>19,27%</t>
   </si>
   <si>
     <t>23,3%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
   </si>
   <si>
     <t>21,57%</t>
@@ -2707,7 +2704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EB95DE-3EED-4DEF-AD8A-49516191A343}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52865E95-1B41-469F-8BDF-AE8885463244}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3056,7 +3053,7 @@
         <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>91</v>
@@ -3065,13 +3062,13 @@
         <v>97355</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3083,13 @@
         <v>202221</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>208</v>
@@ -3101,13 +3098,13 @@
         <v>216799</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>391</v>
@@ -3116,18 +3113,18 @@
         <v>419020</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3139,13 +3136,13 @@
         <v>40686</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3154,13 +3151,13 @@
         <v>32807</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -3169,13 +3166,13 @@
         <v>73493</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,13 +3187,13 @@
         <v>160682</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -3205,13 +3202,13 @@
         <v>166145</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>310</v>
@@ -3220,13 +3217,13 @@
         <v>326827</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3238,13 @@
         <v>135298</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>152</v>
@@ -3256,13 +3253,13 @@
         <v>165327</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>278</v>
@@ -3271,13 +3268,13 @@
         <v>300626</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3289,13 @@
         <v>38715</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -3307,13 +3304,13 @@
         <v>53012</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -3322,13 +3319,13 @@
         <v>91728</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3340,13 @@
         <v>50023</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -3358,13 +3355,13 @@
         <v>68030</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -3373,7 +3370,7 @@
         <v>118053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>104</v>
@@ -3394,13 +3391,13 @@
         <v>425404</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>447</v>
@@ -3409,13 +3406,13 @@
         <v>485322</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>851</v>
@@ -3424,13 +3421,13 @@
         <v>910726</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3510,13 @@
         <v>83573</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>179</v>
@@ -3528,13 +3525,13 @@
         <v>175726</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,10 +3546,10 @@
         <v>91800</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>126</v>
@@ -3654,10 +3651,10 @@
         <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -3666,13 +3663,13 @@
         <v>45145</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>71</v>
@@ -3681,13 +3678,13 @@
         <v>70917</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3699,13 @@
         <v>273129</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>294</v>
@@ -3717,13 +3714,13 @@
         <v>299234</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>581</v>
@@ -3732,18 +3729,18 @@
         <v>572363</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3755,13 +3752,13 @@
         <v>43387</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -3770,13 +3767,13 @@
         <v>34927</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -3785,7 +3782,7 @@
         <v>78314</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>158</v>
@@ -3824,10 +3821,10 @@
         <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>128</v>
@@ -3839,10 +3836,10 @@
         <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3854,13 @@
         <v>91094</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="H24" s="7">
         <v>72</v>
@@ -3890,10 +3887,10 @@
         <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3905,13 @@
         <v>43576</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -3923,13 +3920,13 @@
         <v>51121</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>88</v>
@@ -3938,13 +3935,13 @@
         <v>94696</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3956,13 @@
         <v>93830</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>109</v>
@@ -3974,13 +3971,13 @@
         <v>118836</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>202</v>
@@ -3989,13 +3986,13 @@
         <v>212665</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4007,13 @@
         <v>339356</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>326</v>
@@ -4025,13 +4022,13 @@
         <v>354008</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>650</v>
@@ -4040,18 +4037,18 @@
         <v>693364</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4063,13 +4060,13 @@
         <v>30796</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -4078,13 +4075,13 @@
         <v>23167</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>90</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>53</v>
@@ -4093,13 +4090,13 @@
         <v>53963</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4111,13 @@
         <v>36559</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -4129,13 +4126,13 @@
         <v>51065</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>89</v>
@@ -4144,13 +4141,13 @@
         <v>87624</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4162,13 @@
         <v>30245</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>45</v>
@@ -4180,13 +4177,13 @@
         <v>42547</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>75</v>
@@ -4195,13 +4192,13 @@
         <v>72792</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,7 +4213,7 @@
         <v>30415</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>219</v>
@@ -4318,13 +4315,13 @@
         <v>158660</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>195</v>
@@ -4333,13 +4330,13 @@
         <v>192611</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>354</v>
@@ -4348,13 +4345,13 @@
         <v>351271</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,10 +4371,10 @@
         <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>19</v>
@@ -4386,13 +4383,13 @@
         <v>19699</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>51</v>
@@ -4401,13 +4398,13 @@
         <v>53317</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4419,13 @@
         <v>43792</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>54</v>
@@ -4440,10 +4437,10 @@
         <v>172</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M35" s="7">
         <v>98</v>
@@ -4452,13 +4449,13 @@
         <v>101601</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4470,13 @@
         <v>54719</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H36" s="7">
         <v>47</v>
@@ -4488,10 +4485,10 @@
         <v>47531</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>258</v>
@@ -4560,7 +4557,7 @@
         <v>269</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>169</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4572,13 @@
         <v>43624</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H38" s="7">
         <v>60</v>
@@ -4590,13 +4587,13 @@
         <v>62671</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M38" s="7">
         <v>103</v>
@@ -4605,13 +4602,13 @@
         <v>106296</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4623,13 @@
         <v>210343</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>225</v>
@@ -4641,13 +4638,13 @@
         <v>236086</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>432</v>
@@ -4656,18 +4653,18 @@
         <v>446430</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4679,13 +4676,13 @@
         <v>37987</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H40" s="7">
         <v>40</v>
@@ -4694,13 +4691,13 @@
         <v>40717</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M40" s="7">
         <v>73</v>
@@ -4709,13 +4706,13 @@
         <v>78704</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4727,13 @@
         <v>105459</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H41" s="7">
         <v>97</v>
@@ -4745,13 +4742,13 @@
         <v>103421</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M41" s="7">
         <v>189</v>
@@ -4760,13 +4757,13 @@
         <v>208880</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4778,13 @@
         <v>106234</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H42" s="7">
         <v>138</v>
@@ -4796,13 +4793,13 @@
         <v>150602</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M42" s="7">
         <v>231</v>
@@ -4811,13 +4808,13 @@
         <v>256835</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4829,13 @@
         <v>52683</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>308</v>
+        <v>109</v>
       </c>
       <c r="H43" s="7">
         <v>56</v>
@@ -4847,13 +4844,13 @@
         <v>60687</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M43" s="7">
         <v>103</v>
@@ -4862,13 +4859,13 @@
         <v>113370</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4880,13 @@
         <v>86570</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H44" s="7">
         <v>110</v>
@@ -4898,13 +4895,13 @@
         <v>125856</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M44" s="7">
         <v>187</v>
@@ -4913,13 +4910,13 @@
         <v>212426</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4931,13 @@
         <v>388933</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>441</v>
@@ -4949,13 +4946,13 @@
         <v>481282</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>783</v>
@@ -4964,18 +4961,18 @@
         <v>870215</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4987,13 +4984,13 @@
         <v>67676</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H46" s="7">
         <v>49</v>
@@ -5002,13 +4999,13 @@
         <v>51120</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M46" s="7">
         <v>114</v>
@@ -5017,13 +5014,13 @@
         <v>118796</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P46" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="Q46" s="7" t="s">
-        <v>331</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5035,13 @@
         <v>174028</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H47" s="7">
         <v>185</v>
@@ -5053,13 +5050,13 @@
         <v>196184</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M47" s="7">
         <v>350</v>
@@ -5068,13 +5065,13 @@
         <v>370213</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5086,13 @@
         <v>205518</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H48" s="7">
         <v>233</v>
@@ -5104,13 +5101,13 @@
         <v>257507</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M48" s="7">
         <v>436</v>
@@ -5119,13 +5116,13 @@
         <v>463025</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5137,13 @@
         <v>99499</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H49" s="7">
         <v>103</v>
@@ -5155,13 +5152,13 @@
         <v>117263</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>64</v>
+        <v>352</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="M49" s="7">
         <v>197</v>
@@ -5170,13 +5167,13 @@
         <v>216762</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5188,13 @@
         <v>94114</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>358</v>
+        <v>242</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>359</v>
+        <v>109</v>
       </c>
       <c r="H50" s="7">
         <v>104</v>
@@ -5206,13 +5203,13 @@
         <v>119686</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M50" s="7">
         <v>196</v>
@@ -5221,13 +5218,13 @@
         <v>213800</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>266</v>
+        <v>360</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,16 +5236,16 @@
         <v>619</v>
       </c>
       <c r="D51" s="7">
-        <v>640836</v>
+        <v>640835</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H51" s="7">
         <v>674</v>
@@ -5257,13 +5254,13 @@
         <v>741760</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M51" s="7">
         <v>1293</v>
@@ -5272,13 +5269,13 @@
         <v>1382596</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5292,13 @@
         <v>312194</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>199</v>
+        <v>363</v>
       </c>
       <c r="F52" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H52" s="7">
         <v>244</v>
@@ -5310,13 +5307,13 @@
         <v>252159</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M52" s="7">
         <v>540</v>
@@ -5325,13 +5322,13 @@
         <v>564353</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="Q52" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5343,13 @@
         <v>725106</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H53" s="7">
         <v>743</v>
@@ -5361,13 +5358,13 @@
         <v>779799</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M53" s="7">
         <v>1434</v>
@@ -5376,13 +5373,13 @@
         <v>1504905</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5394,13 @@
         <v>767665</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H54" s="7">
         <v>854</v>
@@ -5412,13 +5409,13 @@
         <v>915147</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M54" s="7">
         <v>1594</v>
@@ -5427,13 +5424,13 @@
         <v>1682812</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5445,13 @@
         <v>364084</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H55" s="7">
         <v>394</v>
@@ -5463,13 +5460,13 @@
         <v>429020</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M55" s="7">
         <v>742</v>
@@ -5484,7 +5481,7 @@
         <v>397</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>398</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5496,13 @@
         <v>469833</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H56" s="7">
         <v>575</v>
@@ -5514,13 +5511,13 @@
         <v>630977</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="K56" s="7" t="s">
-        <v>403</v>
-      </c>
       <c r="L56" s="7" t="s">
-        <v>404</v>
+        <v>264</v>
       </c>
       <c r="M56" s="7">
         <v>1025</v>
@@ -5529,13 +5526,13 @@
         <v>1100810</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5547,13 @@
         <v>2638882</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H57" s="7">
         <v>2810</v>
@@ -5565,13 +5562,13 @@
         <v>3007102</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M57" s="7">
         <v>5335</v>
@@ -5580,18 +5577,18 @@
         <v>5645984</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -5615,7 +5612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E34EE15-5E88-4AB1-83B4-4B8E013C589E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4569C0-2BE0-41B1-9BB9-13BBC9C3D33F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5632,7 +5629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5739,13 +5736,13 @@
         <v>13431</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>412</v>
+        <v>66</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5754,13 +5751,13 @@
         <v>4839</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -5769,13 +5766,13 @@
         <v>18270</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5787,13 @@
         <v>66624</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -5805,13 +5802,13 @@
         <v>64131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M5" s="7">
         <v>216</v>
@@ -5820,13 +5817,13 @@
         <v>130755</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5838,13 @@
         <v>56950</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H6" s="7">
         <v>148</v>
@@ -5856,13 +5853,13 @@
         <v>73300</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M6" s="7">
         <v>210</v>
@@ -5871,13 +5868,13 @@
         <v>130250</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5889,13 @@
         <v>42691</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H7" s="7">
         <v>82</v>
@@ -5907,13 +5904,13 @@
         <v>39872</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M7" s="7">
         <v>136</v>
@@ -5922,13 +5919,13 @@
         <v>82563</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5940,13 @@
         <v>73154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H8" s="7">
         <v>165</v>
@@ -5958,13 +5955,13 @@
         <v>84936</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M8" s="7">
         <v>266</v>
@@ -5973,13 +5970,13 @@
         <v>158090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +5991,13 @@
         <v>252850</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>531</v>
@@ -6009,13 +6006,13 @@
         <v>267079</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>855</v>
@@ -6024,18 +6021,18 @@
         <v>519929</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6047,13 +6044,13 @@
         <v>63830</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H10" s="7">
         <v>102</v>
@@ -6062,13 +6059,13 @@
         <v>73970</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>455</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -6077,13 +6074,13 @@
         <v>137800</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6095,13 @@
         <v>162917</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H11" s="7">
         <v>261</v>
@@ -6113,13 +6110,13 @@
         <v>193130</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M11" s="7">
         <v>394</v>
@@ -6128,13 +6125,13 @@
         <v>356047</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6146,13 @@
         <v>84614</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H12" s="7">
         <v>129</v>
@@ -6164,13 +6161,13 @@
         <v>96103</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>474</v>
+        <v>109</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>475</v>
+        <v>235</v>
       </c>
       <c r="M12" s="7">
         <v>198</v>
@@ -6179,13 +6176,13 @@
         <v>180717</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,13 +6197,13 @@
         <v>30370</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -6215,13 +6212,13 @@
         <v>28681</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>476</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -6230,13 +6227,13 @@
         <v>59052</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,13 +6248,13 @@
         <v>48516</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -6266,13 +6263,13 @@
         <v>74380</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>490</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>140</v>
@@ -6281,13 +6278,13 @@
         <v>122897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>493</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6302,13 +6299,13 @@
         <v>390247</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>632</v>
@@ -6317,13 +6314,13 @@
         <v>466264</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>945</v>
@@ -6332,13 +6329,13 @@
         <v>856511</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6352,13 @@
         <v>31966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -6370,13 +6367,13 @@
         <v>28557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -6385,13 +6382,13 @@
         <v>60523</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>501</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,13 +6403,13 @@
         <v>54589</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>25</v>
+        <v>495</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -6421,13 +6418,13 @@
         <v>65505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -6436,13 +6433,13 @@
         <v>120095</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>500</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,13 +6454,13 @@
         <v>94313</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H18" s="7">
         <v>163</v>
@@ -6472,13 +6469,13 @@
         <v>113028</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M18" s="7">
         <v>268</v>
@@ -6487,13 +6484,13 @@
         <v>207340</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6505,13 @@
         <v>41547</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -6523,10 +6520,10 @@
         <v>70051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>401</v>
+        <v>514</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>27</v>
@@ -6538,13 +6535,13 @@
         <v>111598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6556,13 @@
         <v>79338</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H20" s="7">
         <v>132</v>
@@ -6574,13 +6571,13 @@
         <v>86097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M20" s="7">
         <v>229</v>
@@ -6589,13 +6586,13 @@
         <v>165435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>529</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>531</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6607,13 @@
         <v>301753</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>525</v>
@@ -6625,13 +6622,13 @@
         <v>363238</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>867</v>
@@ -6640,18 +6637,18 @@
         <v>664991</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6663,13 +6660,13 @@
         <v>23331</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -6678,13 +6675,13 @@
         <v>33869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>536</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -6693,13 +6690,13 @@
         <v>57200</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>531</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,13 +6711,13 @@
         <v>60078</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H23" s="7">
         <v>104</v>
@@ -6729,13 +6726,13 @@
         <v>73628</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="M23" s="7">
         <v>158</v>
@@ -6744,13 +6741,13 @@
         <v>133706</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>274</v>
+        <v>540</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6762,13 @@
         <v>61936</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>176</v>
+        <v>544</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H24" s="7">
         <v>129</v>
@@ -6780,13 +6777,13 @@
         <v>91647</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>551</v>
+        <v>405</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="M24" s="7">
         <v>180</v>
@@ -6795,13 +6792,13 @@
         <v>153583</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>407</v>
+        <v>549</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>53</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6813,13 @@
         <v>53322</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>269</v>
+        <v>552</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -6831,13 +6828,13 @@
         <v>48195</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>558</v>
+        <v>214</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -6846,13 +6843,13 @@
         <v>101518</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6864,13 @@
         <v>70994</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>563</v>
+        <v>71</v>
       </c>
       <c r="H26" s="7">
         <v>188</v>
@@ -6882,13 +6879,13 @@
         <v>119222</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>29</v>
+        <v>561</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M26" s="7">
         <v>267</v>
@@ -6897,13 +6894,13 @@
         <v>190217</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>337</v>
+        <v>563</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6915,13 @@
         <v>269661</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>542</v>
@@ -6933,13 +6930,13 @@
         <v>366562</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>795</v>
@@ -6948,18 +6945,18 @@
         <v>636224</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6971,13 +6968,13 @@
         <v>7965</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -6986,13 +6983,13 @@
         <v>9073</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -7001,13 +6998,13 @@
         <v>17038</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>66</v>
+        <v>572</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,7 +7019,7 @@
         <v>29909</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>260</v>
+        <v>575</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>576</v>
@@ -7196,7 +7193,7 @@
         <v>605</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
         <v>96</v>
@@ -7205,7 +7202,7 @@
         <v>47151</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>606</v>
@@ -7226,13 +7223,13 @@
         <v>159422</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>447</v>
@@ -7241,13 +7238,13 @@
         <v>202348</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>681</v>
@@ -7256,13 +7253,13 @@
         <v>361770</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7276,13 @@
         <v>35103</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>608</v>
+        <v>143</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>142</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
@@ -7294,13 +7291,13 @@
         <v>24897</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="M34" s="7">
         <v>68</v>
@@ -7309,13 +7306,13 @@
         <v>60000</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,7 +7378,7 @@
         <v>68684</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>623</v>
@@ -7435,10 +7432,10 @@
         <v>631</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>633</v>
       </c>
       <c r="H37" s="7">
         <v>90</v>
@@ -7447,13 +7444,13 @@
         <v>46648</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="M37" s="7">
         <v>157</v>
@@ -7462,13 +7459,13 @@
         <v>88041</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,7 +7516,7 @@
         <v>645</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>646</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7531,13 @@
         <v>264904</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>451</v>
@@ -7549,13 +7546,13 @@
         <v>265933</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>806</v>
@@ -7564,18 +7561,18 @@
         <v>530836</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7587,13 +7584,13 @@
         <v>29138</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>648</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>649</v>
       </c>
       <c r="H40" s="7">
         <v>42</v>
@@ -7602,13 +7599,13 @@
         <v>33061</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>652</v>
       </c>
       <c r="M40" s="7">
         <v>75</v>
@@ -7617,13 +7614,13 @@
         <v>62199</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>653</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7635,13 @@
         <v>91100</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>658</v>
       </c>
       <c r="H41" s="7">
         <v>156</v>
@@ -7653,13 +7650,13 @@
         <v>115756</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="M41" s="7">
         <v>237</v>
@@ -7668,13 +7665,13 @@
         <v>206856</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>403</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7686,13 @@
         <v>173371</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>665</v>
+        <v>126</v>
       </c>
       <c r="H42" s="7">
         <v>266</v>
@@ -7704,13 +7701,13 @@
         <v>303792</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M42" s="7">
         <v>435</v>
@@ -7719,13 +7716,13 @@
         <v>477163</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,13 +7737,13 @@
         <v>91069</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H43" s="7">
         <v>151</v>
@@ -7755,13 +7752,13 @@
         <v>103871</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>672</v>
+        <v>324</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="M43" s="7">
         <v>250</v>
@@ -7773,10 +7770,10 @@
         <v>604</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,13 +7788,13 @@
         <v>121418</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>676</v>
+        <v>254</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H44" s="7">
         <v>255</v>
@@ -7806,13 +7803,13 @@
         <v>175828</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="M44" s="7">
         <v>381</v>
@@ -7821,13 +7818,13 @@
         <v>297246</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>171</v>
+        <v>675</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7842,13 +7839,13 @@
         <v>506096</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>870</v>
@@ -7857,13 +7854,13 @@
         <v>732309</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>1378</v>
@@ -7872,18 +7869,18 @@
         <v>1238405</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7895,13 +7892,13 @@
         <v>17737</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="H46" s="7">
         <v>30</v>
@@ -7910,13 +7907,13 @@
         <v>24709</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="M46" s="7">
         <v>49</v>
@@ -7925,13 +7922,13 @@
         <v>42446</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,13 +7943,13 @@
         <v>158523</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>59</v>
+        <v>686</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H47" s="7">
         <v>201</v>
@@ -7961,13 +7958,13 @@
         <v>157904</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="M47" s="7">
         <v>356</v>
@@ -7976,13 +7973,13 @@
         <v>316427</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>696</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7997,13 +7994,13 @@
         <v>166717</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>337</v>
+        <v>563</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H48" s="7">
         <v>286</v>
@@ -8012,13 +8009,13 @@
         <v>208081</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M48" s="7">
         <v>466</v>
@@ -8027,13 +8024,13 @@
         <v>374797</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,13 +8045,13 @@
         <v>118956</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>707</v>
+        <v>188</v>
       </c>
       <c r="H49" s="7">
         <v>192</v>
@@ -8063,13 +8060,13 @@
         <v>134667</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="M49" s="7">
         <v>327</v>
@@ -8078,13 +8075,13 @@
         <v>253623</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8096,13 @@
         <v>28792</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="H50" s="7">
         <v>94</v>
@@ -8114,13 +8111,13 @@
         <v>69956</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="M50" s="7">
         <v>125</v>
@@ -8129,13 +8126,13 @@
         <v>98747</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>721</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8150,13 +8147,13 @@
         <v>490724</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H51" s="7">
         <v>803</v>
@@ -8165,13 +8162,13 @@
         <v>595317</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M51" s="7">
         <v>1323</v>
@@ -8180,13 +8177,13 @@
         <v>1086040</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,13 +8200,13 @@
         <v>222500</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>722</v>
-      </c>
       <c r="G52" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H52" s="7">
         <v>304</v>
@@ -8218,13 +8215,13 @@
         <v>232976</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>287</v>
+        <v>718</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="M52" s="7">
         <v>518</v>
@@ -8233,13 +8230,13 @@
         <v>455475</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8254,13 +8251,13 @@
         <v>686590</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="H53" s="7">
         <v>1090</v>
@@ -8269,13 +8266,13 @@
         <v>757524</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="M53" s="7">
         <v>1770</v>
@@ -8284,13 +8281,13 @@
         <v>1444115</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8305,13 +8302,13 @@
         <v>785706</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="H54" s="7">
         <v>1426</v>
@@ -8320,13 +8317,13 @@
         <v>1042409</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>375</v>
+        <v>734</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="M54" s="7">
         <v>2271</v>
@@ -8335,13 +8332,13 @@
         <v>1828115</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8356,13 +8353,13 @@
         <v>446471</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>225</v>
+        <v>739</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H55" s="7">
         <v>847</v>
@@ -8371,13 +8368,13 @@
         <v>515653</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="M55" s="7">
         <v>1367</v>
@@ -8386,13 +8383,13 @@
         <v>962124</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,13 +8404,13 @@
         <v>494388</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>260</v>
+        <v>575</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>207</v>
+        <v>748</v>
       </c>
       <c r="H56" s="7">
         <v>1134</v>
@@ -8425,10 +8422,10 @@
         <v>642</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>336</v>
+        <v>750</v>
       </c>
       <c r="M56" s="7">
         <v>1724</v>
@@ -8437,13 +8434,13 @@
         <v>1204877</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>676</v>
+        <v>254</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8458,13 +8455,13 @@
         <v>2635656</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H57" s="7">
         <v>4801</v>
@@ -8473,13 +8470,13 @@
         <v>3259050</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M57" s="7">
         <v>7650</v>
@@ -8488,18 +8485,18 @@
         <v>5894706</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FCE3791-9158-42DB-B70D-FC900F877E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1878E53E-10D7-4187-9F50-BEB497A8EC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2947E482-0C8E-4233-A320-BE3D4CE439F6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{121001FF-5157-45C5-B938-775FA1565BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="740">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2016 (Tasa respuesta: 81,21%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>10,34%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
   </si>
   <si>
     <t>Entre uno y tres años</t>
@@ -105,28 +105,28 @@
     <t>22,23%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
   </si>
   <si>
     <t>23,62%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
   </si>
   <si>
     <t>Entre seis meses y un año</t>
@@ -135,2164 +135,2128 @@
     <t>26,09%</t>
   </si>
   <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>19,71%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
   </si>
   <si>
     <t>31,88%</t>
   </si>
   <si>
-    <t>25,59%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
   </si>
   <si>
     <t>16,94%</t>
   </si>
   <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
   </si>
 </sst>
 </file>
@@ -2704,7 +2668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52865E95-1B41-469F-8BDF-AE8885463244}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED211EA-EEF2-4F76-BA3A-B578BB36376F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3053,7 +3017,7 @@
         <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>91</v>
@@ -3062,13 +3026,13 @@
         <v>97355</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3047,13 @@
         <v>202221</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>208</v>
@@ -3098,13 +3062,13 @@
         <v>216799</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>391</v>
@@ -3113,18 +3077,18 @@
         <v>419020</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3136,13 +3100,13 @@
         <v>40686</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3151,13 +3115,13 @@
         <v>32807</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -3166,13 +3130,13 @@
         <v>73493</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3151,13 @@
         <v>160682</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -3202,13 +3166,13 @@
         <v>166145</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>310</v>
@@ -3217,13 +3181,13 @@
         <v>326827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,13 +3202,13 @@
         <v>135298</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>152</v>
@@ -3253,13 +3217,13 @@
         <v>165327</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>278</v>
@@ -3268,13 +3232,13 @@
         <v>300626</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3253,13 @@
         <v>38715</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -3304,13 +3268,13 @@
         <v>53012</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -3319,13 +3283,13 @@
         <v>91728</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3304,13 @@
         <v>50023</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -3355,13 +3319,13 @@
         <v>68030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -3370,13 +3334,13 @@
         <v>118053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3355,13 @@
         <v>425404</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>447</v>
@@ -3406,13 +3370,13 @@
         <v>485322</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>851</v>
@@ -3421,18 +3385,18 @@
         <v>910726</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3444,13 +3408,13 @@
         <v>37142</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -3459,13 +3423,13 @@
         <v>28369</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -3474,13 +3438,13 @@
         <v>65511</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3459,13 @@
         <v>92153</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -3510,13 +3474,13 @@
         <v>83573</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>179</v>
@@ -3525,13 +3489,13 @@
         <v>175726</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3510,13 @@
         <v>91800</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>115</v>
@@ -3561,13 +3525,13 @@
         <v>118424</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>212</v>
@@ -3576,13 +3540,13 @@
         <v>210224</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3561,13 @@
         <v>26263</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -3612,13 +3576,13 @@
         <v>23723</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -3627,13 +3591,13 @@
         <v>49985</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3612,13 @@
         <v>25772</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -3663,13 +3627,13 @@
         <v>45145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>71</v>
@@ -3678,13 +3642,13 @@
         <v>70917</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3663,13 @@
         <v>273129</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>294</v>
@@ -3714,13 +3678,13 @@
         <v>299234</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>581</v>
@@ -3729,18 +3693,18 @@
         <v>572363</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3752,13 +3716,13 @@
         <v>43387</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -3767,13 +3731,13 @@
         <v>34927</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -3782,13 +3746,13 @@
         <v>78314</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3767,13 @@
         <v>67470</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -3818,13 +3782,13 @@
         <v>70392</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>128</v>
@@ -3833,13 +3797,13 @@
         <v>137862</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,13 +3818,13 @@
         <v>91094</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>72</v>
@@ -3869,13 +3833,13 @@
         <v>78733</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>158</v>
@@ -3884,13 +3848,13 @@
         <v>169826</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3869,13 @@
         <v>43576</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -3920,13 +3884,13 @@
         <v>51121</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>88</v>
@@ -3935,13 +3899,13 @@
         <v>94696</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3920,13 @@
         <v>93830</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>109</v>
@@ -3971,13 +3935,13 @@
         <v>118836</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>202</v>
@@ -3986,13 +3950,13 @@
         <v>212665</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3971,13 @@
         <v>339356</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>326</v>
@@ -4022,13 +3986,13 @@
         <v>354008</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>650</v>
@@ -4037,18 +4001,18 @@
         <v>693364</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4060,13 +4024,13 @@
         <v>30796</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -4075,13 +4039,13 @@
         <v>23167</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>53</v>
@@ -4090,13 +4054,13 @@
         <v>53963</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4075,13 @@
         <v>36559</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -4126,13 +4090,13 @@
         <v>51065</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>89</v>
@@ -4141,13 +4105,13 @@
         <v>87624</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4126,13 @@
         <v>30245</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>45</v>
@@ -4177,13 +4141,13 @@
         <v>42547</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>75</v>
@@ -4192,13 +4156,13 @@
         <v>72792</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4177,13 @@
         <v>30415</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>37</v>
@@ -4228,13 +4192,13 @@
         <v>37178</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>69</v>
@@ -4243,13 +4207,13 @@
         <v>67593</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,10 +4228,10 @@
         <v>30644</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>229</v>
@@ -4315,13 +4279,13 @@
         <v>158660</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>195</v>
@@ -4330,13 +4294,13 @@
         <v>192611</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>354</v>
@@ -4345,13 +4309,13 @@
         <v>351271</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,10 +4335,10 @@
         <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>19</v>
@@ -4383,13 +4347,13 @@
         <v>19699</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="M34" s="7">
         <v>51</v>
@@ -4398,13 +4362,13 @@
         <v>53317</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4383,13 @@
         <v>43792</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H35" s="7">
         <v>54</v>
@@ -4434,13 +4398,13 @@
         <v>57809</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M35" s="7">
         <v>98</v>
@@ -4449,13 +4413,13 @@
         <v>101601</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4434,13 @@
         <v>54719</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>47</v>
@@ -4485,13 +4449,13 @@
         <v>47531</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M36" s="7">
         <v>102</v>
@@ -4500,13 +4464,13 @@
         <v>102249</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4485,13 @@
         <v>34590</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H37" s="7">
         <v>45</v>
@@ -4536,13 +4500,13 @@
         <v>48377</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>78</v>
@@ -4551,13 +4515,13 @@
         <v>82967</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4536,13 @@
         <v>43624</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>60</v>
@@ -4587,13 +4551,13 @@
         <v>62671</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>103</v>
@@ -4602,13 +4566,13 @@
         <v>106296</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4587,13 @@
         <v>210343</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>225</v>
@@ -4638,13 +4602,13 @@
         <v>236086</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>432</v>
@@ -4653,18 +4617,18 @@
         <v>446430</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4676,13 +4640,13 @@
         <v>37987</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H40" s="7">
         <v>40</v>
@@ -4691,13 +4655,13 @@
         <v>40717</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M40" s="7">
         <v>73</v>
@@ -4706,13 +4670,13 @@
         <v>78704</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>287</v>
+        <v>160</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4691,13 @@
         <v>105459</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="H41" s="7">
         <v>97</v>
@@ -4742,13 +4706,13 @@
         <v>103421</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M41" s="7">
         <v>189</v>
@@ -4757,13 +4721,13 @@
         <v>208880</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4742,13 @@
         <v>106234</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H42" s="7">
         <v>138</v>
@@ -4793,13 +4757,13 @@
         <v>150602</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M42" s="7">
         <v>231</v>
@@ -4808,13 +4772,13 @@
         <v>256835</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4793,13 @@
         <v>52683</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="H43" s="7">
         <v>56</v>
@@ -4844,13 +4808,13 @@
         <v>60687</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M43" s="7">
         <v>103</v>
@@ -4859,13 +4823,13 @@
         <v>113370</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>179</v>
+        <v>307</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4844,13 @@
         <v>86570</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H44" s="7">
         <v>110</v>
@@ -4895,13 +4859,13 @@
         <v>125856</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M44" s="7">
         <v>187</v>
@@ -4910,13 +4874,13 @@
         <v>212426</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4895,13 @@
         <v>388933</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>441</v>
@@ -4946,13 +4910,13 @@
         <v>481282</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>783</v>
@@ -4961,18 +4925,18 @@
         <v>870215</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4984,13 +4948,13 @@
         <v>67676</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H46" s="7">
         <v>49</v>
@@ -4999,13 +4963,13 @@
         <v>51120</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M46" s="7">
         <v>114</v>
@@ -5014,13 +4978,13 @@
         <v>118796</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>69</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +4999,13 @@
         <v>174028</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H47" s="7">
         <v>185</v>
@@ -5050,13 +5014,13 @@
         <v>196184</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M47" s="7">
         <v>350</v>
@@ -5065,13 +5029,13 @@
         <v>370213</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5050,13 @@
         <v>205518</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>340</v>
+        <v>118</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H48" s="7">
         <v>233</v>
@@ -5101,13 +5065,13 @@
         <v>257507</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M48" s="7">
         <v>436</v>
@@ -5116,13 +5080,13 @@
         <v>463025</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5101,13 @@
         <v>99499</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>348</v>
+        <v>100</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H49" s="7">
         <v>103</v>
@@ -5152,13 +5116,13 @@
         <v>117263</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>352</v>
+        <v>146</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="M49" s="7">
         <v>197</v>
@@ -5167,13 +5131,13 @@
         <v>216762</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5152,13 @@
         <v>94114</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>242</v>
+        <v>349</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>109</v>
+        <v>350</v>
       </c>
       <c r="H50" s="7">
         <v>104</v>
@@ -5203,13 +5167,13 @@
         <v>119686</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>359</v>
+        <v>28</v>
       </c>
       <c r="M50" s="7">
         <v>196</v>
@@ -5218,13 +5182,13 @@
         <v>213800</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5203,13 @@
         <v>640835</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7">
         <v>674</v>
@@ -5254,13 +5218,13 @@
         <v>741760</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M51" s="7">
         <v>1293</v>
@@ -5269,13 +5233,13 @@
         <v>1382596</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5256,13 @@
         <v>312194</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H52" s="7">
         <v>244</v>
@@ -5307,13 +5271,13 @@
         <v>252159</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>368</v>
+        <v>67</v>
       </c>
       <c r="M52" s="7">
         <v>540</v>
@@ -5322,13 +5286,13 @@
         <v>564353</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5307,13 @@
         <v>725106</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>372</v>
+        <v>29</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="H53" s="7">
         <v>743</v>
@@ -5358,13 +5322,13 @@
         <v>779799</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="M53" s="7">
         <v>1434</v>
@@ -5373,13 +5337,13 @@
         <v>1504905</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,28 +5358,28 @@
         <v>767665</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H54" s="7">
         <v>854</v>
       </c>
       <c r="I54" s="7">
-        <v>915147</v>
+        <v>915148</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="M54" s="7">
         <v>1594</v>
@@ -5424,13 +5388,13 @@
         <v>1682812</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5409,13 @@
         <v>364084</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="H55" s="7">
         <v>394</v>
@@ -5460,13 +5424,13 @@
         <v>429020</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="M55" s="7">
         <v>742</v>
@@ -5475,13 +5439,13 @@
         <v>793104</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5460,13 @@
         <v>469833</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="H56" s="7">
         <v>575</v>
@@ -5511,13 +5475,13 @@
         <v>630977</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>264</v>
+        <v>391</v>
       </c>
       <c r="M56" s="7">
         <v>1025</v>
@@ -5526,13 +5490,13 @@
         <v>1100810</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,28 +5511,28 @@
         <v>2638882</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H57" s="7">
         <v>2810</v>
       </c>
       <c r="I57" s="7">
-        <v>3007102</v>
+        <v>3007103</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M57" s="7">
         <v>5335</v>
@@ -5577,18 +5541,18 @@
         <v>5645984</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -5612,7 +5576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4569C0-2BE0-41B1-9BB9-13BBC9C3D33F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B78109E-E478-4756-BBD6-E8B6C6FE7465}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5629,7 +5593,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5736,13 +5700,13 @@
         <v>13431</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>359</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5751,13 +5715,13 @@
         <v>4839</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -5766,13 +5730,13 @@
         <v>18270</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5751,13 @@
         <v>66624</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -5802,13 +5766,13 @@
         <v>64131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>216</v>
@@ -5817,13 +5781,13 @@
         <v>130755</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>423</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5802,13 @@
         <v>56950</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>426</v>
+        <v>204</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="H6" s="7">
         <v>148</v>
@@ -5853,13 +5817,13 @@
         <v>73300</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="M6" s="7">
         <v>210</v>
@@ -5868,13 +5832,13 @@
         <v>130250</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>419</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5853,13 @@
         <v>42691</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="H7" s="7">
         <v>82</v>
@@ -5904,13 +5868,13 @@
         <v>39872</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>437</v>
+        <v>261</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="M7" s="7">
         <v>136</v>
@@ -5919,13 +5883,13 @@
         <v>82563</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>440</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +5904,13 @@
         <v>73154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>442</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="H8" s="7">
         <v>165</v>
@@ -5955,13 +5919,13 @@
         <v>84936</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="M8" s="7">
         <v>266</v>
@@ -5970,13 +5934,13 @@
         <v>158090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +5955,13 @@
         <v>252850</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>531</v>
@@ -6006,13 +5970,13 @@
         <v>267079</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>855</v>
@@ -6021,18 +5985,18 @@
         <v>519929</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6044,13 +6008,13 @@
         <v>63830</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>451</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>102</v>
@@ -6059,13 +6023,13 @@
         <v>73970</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>436</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -6074,13 +6038,13 @@
         <v>137800</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6059,13 @@
         <v>162917</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="H11" s="7">
         <v>261</v>
@@ -6110,13 +6074,13 @@
         <v>193130</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="M11" s="7">
         <v>394</v>
@@ -6125,13 +6089,13 @@
         <v>356047</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6110,13 @@
         <v>84614</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="H12" s="7">
         <v>129</v>
@@ -6161,13 +6125,13 @@
         <v>96103</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>109</v>
+        <v>455</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>456</v>
       </c>
       <c r="M12" s="7">
         <v>198</v>
@@ -6176,13 +6140,13 @@
         <v>180717</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>472</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6197,13 +6161,13 @@
         <v>30370</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -6212,13 +6176,13 @@
         <v>28681</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>476</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -6227,13 +6191,13 @@
         <v>59052</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6248,13 +6212,13 @@
         <v>48516</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -6263,13 +6227,13 @@
         <v>74380</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>485</v>
+        <v>437</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>140</v>
@@ -6278,13 +6242,13 @@
         <v>122897</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6263,13 @@
         <v>390247</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>632</v>
@@ -6314,13 +6278,13 @@
         <v>466264</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>945</v>
@@ -6329,18 +6293,18 @@
         <v>856511</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6352,13 +6316,13 @@
         <v>31966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -6367,13 +6331,13 @@
         <v>28557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -6382,13 +6346,13 @@
         <v>60523</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>138</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,13 +6367,13 @@
         <v>54589</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>482</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -6418,13 +6382,13 @@
         <v>65505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
@@ -6433,13 +6397,13 @@
         <v>120095</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>487</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,13 +6418,13 @@
         <v>94313</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="H18" s="7">
         <v>163</v>
@@ -6469,13 +6433,13 @@
         <v>113028</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="M18" s="7">
         <v>268</v>
@@ -6484,13 +6448,13 @@
         <v>207340</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>509</v>
+        <v>216</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,13 +6469,13 @@
         <v>41547</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -6520,13 +6484,13 @@
         <v>70051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>27</v>
+        <v>502</v>
       </c>
       <c r="M19" s="7">
         <v>159</v>
@@ -6535,13 +6499,13 @@
         <v>111598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>516</v>
+        <v>452</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,13 +6520,13 @@
         <v>79338</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>521</v>
+        <v>295</v>
       </c>
       <c r="H20" s="7">
         <v>132</v>
@@ -6571,13 +6535,13 @@
         <v>86097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="M20" s="7">
         <v>229</v>
@@ -6586,13 +6550,13 @@
         <v>165435</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>510</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6571,13 @@
         <v>301753</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>525</v>
@@ -6622,13 +6586,13 @@
         <v>363238</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>867</v>
@@ -6637,18 +6601,18 @@
         <v>664991</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6660,13 +6624,13 @@
         <v>23331</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -6675,13 +6639,13 @@
         <v>33869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>517</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -6690,13 +6654,13 @@
         <v>57200</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,13 +6675,13 @@
         <v>60078</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>534</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="H23" s="7">
         <v>104</v>
@@ -6726,13 +6690,13 @@
         <v>73628</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>539</v>
+        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>158</v>
@@ -6741,13 +6705,13 @@
         <v>133706</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,13 +6726,13 @@
         <v>61936</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>544</v>
+        <v>44</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="H24" s="7">
         <v>129</v>
@@ -6777,13 +6741,13 @@
         <v>91647</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>405</v>
+        <v>532</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>547</v>
+        <v>294</v>
       </c>
       <c r="M24" s="7">
         <v>180</v>
@@ -6792,13 +6756,13 @@
         <v>153583</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>550</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,13 +6777,13 @@
         <v>53322</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -6828,13 +6792,13 @@
         <v>48195</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>214</v>
+        <v>540</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -6843,13 +6807,13 @@
         <v>101518</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,13 +6828,13 @@
         <v>70994</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>558</v>
+        <v>229</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>71</v>
+        <v>544</v>
       </c>
       <c r="H26" s="7">
         <v>188</v>
@@ -6879,13 +6843,13 @@
         <v>119222</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="M26" s="7">
         <v>267</v>
@@ -6894,13 +6858,13 @@
         <v>190217</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>565</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6915,13 +6879,13 @@
         <v>269661</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>542</v>
@@ -6930,13 +6894,13 @@
         <v>366562</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>795</v>
@@ -6945,18 +6909,18 @@
         <v>636224</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6968,13 +6932,13 @@
         <v>7965</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>568</v>
+        <v>99</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -6983,13 +6947,13 @@
         <v>9073</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -6998,13 +6962,13 @@
         <v>17038</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7019,13 +6983,13 @@
         <v>29909</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="H29" s="7">
         <v>74</v>
@@ -7034,13 +6998,13 @@
         <v>35004</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
@@ -7049,13 +7013,13 @@
         <v>64912</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,13 +7034,13 @@
         <v>79122</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="H30" s="7">
         <v>184</v>
@@ -7085,13 +7049,13 @@
         <v>82757</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="M30" s="7">
         <v>298</v>
@@ -7100,13 +7064,13 @@
         <v>161879</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7121,13 +7085,13 @@
         <v>27123</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="H31" s="7">
         <v>101</v>
@@ -7136,13 +7100,13 @@
         <v>43667</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="M31" s="7">
         <v>141</v>
@@ -7151,13 +7115,13 @@
         <v>70790</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>601</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7172,13 +7136,13 @@
         <v>15303</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>396</v>
+        <v>585</v>
       </c>
       <c r="H32" s="7">
         <v>72</v>
@@ -7187,13 +7151,13 @@
         <v>31849</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>194</v>
+        <v>588</v>
       </c>
       <c r="M32" s="7">
         <v>96</v>
@@ -7202,13 +7166,13 @@
         <v>47151</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7223,13 +7187,13 @@
         <v>159422</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>447</v>
@@ -7238,13 +7202,13 @@
         <v>202348</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>681</v>
@@ -7253,13 +7217,13 @@
         <v>361770</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7276,13 +7240,13 @@
         <v>35103</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>143</v>
+        <v>591</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>142</v>
+        <v>592</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
@@ -7291,13 +7255,13 @@
         <v>24897</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>611</v>
+        <v>108</v>
       </c>
       <c r="M34" s="7">
         <v>68</v>
@@ -7306,13 +7270,13 @@
         <v>60000</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>613</v>
+        <v>160</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,13 +7291,13 @@
         <v>62850</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>616</v>
+        <v>344</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="H35" s="7">
         <v>79</v>
@@ -7345,10 +7309,10 @@
         <v>233</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="M35" s="7">
         <v>145</v>
@@ -7357,13 +7321,13 @@
         <v>115316</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7378,13 +7342,13 @@
         <v>68684</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="H36" s="7">
         <v>121</v>
@@ -7393,13 +7357,13 @@
         <v>73701</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="M36" s="7">
         <v>216</v>
@@ -7408,13 +7372,13 @@
         <v>142385</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>628</v>
+        <v>259</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,13 +7393,13 @@
         <v>41393</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>631</v>
+        <v>383</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>96</v>
+        <v>612</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="H37" s="7">
         <v>90</v>
@@ -7444,13 +7408,13 @@
         <v>46648</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>634</v>
+        <v>221</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>635</v>
+        <v>457</v>
       </c>
       <c r="M37" s="7">
         <v>157</v>
@@ -7459,13 +7423,13 @@
         <v>88041</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>486</v>
+        <v>381</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,13 +7444,13 @@
         <v>56874</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="H38" s="7">
         <v>130</v>
@@ -7495,13 +7459,13 @@
         <v>68220</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="M38" s="7">
         <v>220</v>
@@ -7510,13 +7474,13 @@
         <v>125094</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>315</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,13 +7495,13 @@
         <v>264904</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>451</v>
@@ -7546,13 +7510,13 @@
         <v>265933</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>806</v>
@@ -7561,18 +7525,18 @@
         <v>530836</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7584,13 +7548,13 @@
         <v>29138</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="H40" s="7">
         <v>42</v>
@@ -7599,13 +7563,13 @@
         <v>33061</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="M40" s="7">
         <v>75</v>
@@ -7614,13 +7578,13 @@
         <v>62199</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>327</v>
+        <v>460</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>653</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,13 +7599,13 @@
         <v>91100</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="H41" s="7">
         <v>156</v>
@@ -7650,13 +7614,13 @@
         <v>115756</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>658</v>
+        <v>504</v>
       </c>
       <c r="M41" s="7">
         <v>237</v>
@@ -7665,13 +7629,13 @@
         <v>206856</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>57</v>
+        <v>638</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,13 +7650,13 @@
         <v>173371</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>661</v>
+        <v>639</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>126</v>
+        <v>641</v>
       </c>
       <c r="H42" s="7">
         <v>266</v>
@@ -7701,13 +7665,13 @@
         <v>303792</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="M42" s="7">
         <v>435</v>
@@ -7716,13 +7680,13 @@
         <v>477163</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,13 +7701,13 @@
         <v>91069</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>513</v>
+        <v>287</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>356</v>
+        <v>648</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>466</v>
+        <v>579</v>
       </c>
       <c r="H43" s="7">
         <v>151</v>
@@ -7752,13 +7716,13 @@
         <v>103871</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>324</v>
+        <v>650</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>541</v>
+        <v>651</v>
       </c>
       <c r="M43" s="7">
         <v>250</v>
@@ -7767,13 +7731,13 @@
         <v>194940</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>669</v>
+        <v>356</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7788,13 +7752,13 @@
         <v>121418</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>254</v>
+        <v>654</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="H44" s="7">
         <v>255</v>
@@ -7803,13 +7767,13 @@
         <v>175828</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>674</v>
+        <v>329</v>
       </c>
       <c r="M44" s="7">
         <v>381</v>
@@ -7818,13 +7782,13 @@
         <v>297246</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>47</v>
+        <v>657</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,13 +7803,13 @@
         <v>506096</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>870</v>
@@ -7854,13 +7818,13 @@
         <v>732309</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>1378</v>
@@ -7869,18 +7833,18 @@
         <v>1238405</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7892,13 +7856,13 @@
         <v>17737</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="H46" s="7">
         <v>30</v>
@@ -7907,13 +7871,13 @@
         <v>24709</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="M46" s="7">
         <v>49</v>
@@ -7922,13 +7886,13 @@
         <v>42446</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7943,13 +7907,13 @@
         <v>158523</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="H47" s="7">
         <v>201</v>
@@ -7958,13 +7922,13 @@
         <v>157904</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="M47" s="7">
         <v>356</v>
@@ -7973,13 +7937,13 @@
         <v>316427</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>36</v>
+        <v>676</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7994,13 +7958,13 @@
         <v>166717</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>563</v>
+        <v>678</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="H48" s="7">
         <v>286</v>
@@ -8009,13 +7973,13 @@
         <v>208081</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="M48" s="7">
         <v>466</v>
@@ -8024,13 +7988,13 @@
         <v>374797</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8045,13 +8009,13 @@
         <v>118956</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>188</v>
+        <v>688</v>
       </c>
       <c r="H49" s="7">
         <v>192</v>
@@ -8060,13 +8024,13 @@
         <v>134667</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>705</v>
+        <v>362</v>
       </c>
       <c r="M49" s="7">
         <v>327</v>
@@ -8075,13 +8039,13 @@
         <v>253623</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8096,13 +8060,13 @@
         <v>28792</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="H50" s="7">
         <v>94</v>
@@ -8111,13 +8075,13 @@
         <v>69956</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>657</v>
+        <v>698</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="M50" s="7">
         <v>125</v>
@@ -8126,13 +8090,13 @@
         <v>98747</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>364</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8147,13 +8111,13 @@
         <v>490724</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7">
         <v>803</v>
@@ -8162,13 +8126,13 @@
         <v>595317</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M51" s="7">
         <v>1323</v>
@@ -8177,13 +8141,13 @@
         <v>1086040</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8200,13 +8164,13 @@
         <v>222500</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>717</v>
+        <v>304</v>
       </c>
       <c r="H52" s="7">
         <v>304</v>
@@ -8215,13 +8179,13 @@
         <v>232976</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="M52" s="7">
         <v>518</v>
@@ -8230,13 +8194,13 @@
         <v>455475</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8251,13 +8215,13 @@
         <v>686590</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>319</v>
+        <v>711</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="H53" s="7">
         <v>1090</v>
@@ -8266,13 +8230,13 @@
         <v>757524</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="M53" s="7">
         <v>1770</v>
@@ -8281,13 +8245,13 @@
         <v>1444115</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8302,13 +8266,13 @@
         <v>785706</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="H54" s="7">
         <v>1426</v>
@@ -8317,13 +8281,13 @@
         <v>1042409</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="M54" s="7">
         <v>2271</v>
@@ -8332,13 +8296,13 @@
         <v>1828115</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8353,13 +8317,13 @@
         <v>446471</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>165</v>
+        <v>726</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>739</v>
+        <v>152</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="H55" s="7">
         <v>847</v>
@@ -8368,13 +8332,13 @@
         <v>515653</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>743</v>
+        <v>167</v>
       </c>
       <c r="M55" s="7">
         <v>1367</v>
@@ -8383,13 +8347,13 @@
         <v>962124</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8404,13 +8368,13 @@
         <v>494388</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="H56" s="7">
         <v>1134</v>
@@ -8419,13 +8383,13 @@
         <v>710489</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>642</v>
+        <v>735</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>750</v>
+        <v>691</v>
       </c>
       <c r="M56" s="7">
         <v>1724</v>
@@ -8434,13 +8398,13 @@
         <v>1204877</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>254</v>
+        <v>737</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>456</v>
+        <v>738</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8455,13 +8419,13 @@
         <v>2635656</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H57" s="7">
         <v>4801</v>
@@ -8470,13 +8434,13 @@
         <v>3259050</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M57" s="7">
         <v>7650</v>
@@ -8485,18 +8449,18 @@
         <v>5894706</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1878E53E-10D7-4187-9F50-BEB497A8EC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EC2E61C-3C2C-4FB9-B05B-556C4EC5116F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{121001FF-5157-45C5-B938-775FA1565BDE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{497A3EDD-1A6C-4F7B-9D4C-6070B4061A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="742">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2016 (Tasa respuesta: 81,21%)</t>
   </si>
@@ -1230,52 +1230,400 @@
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
   </si>
   <si>
     <t>22,52%</t>
@@ -1284,979 +1632,637 @@
     <t>28,84%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
   </si>
   <si>
     <t>22,34%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>16,94%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
 </sst>
 </file>
@@ -2668,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED211EA-EEF2-4F76-BA3A-B578BB36376F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D322723B-E03D-4D50-A050-5F8AD9F186F8}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5011,7 +5017,7 @@
         <v>185</v>
       </c>
       <c r="I47" s="7">
-        <v>196184</v>
+        <v>196185</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>299</v>
@@ -5164,7 +5170,7 @@
         <v>104</v>
       </c>
       <c r="I50" s="7">
-        <v>119686</v>
+        <v>119687</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>351</v>
@@ -5215,7 +5221,7 @@
         <v>674</v>
       </c>
       <c r="I51" s="7">
-        <v>741760</v>
+        <v>741761</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>60</v>
@@ -5508,7 +5514,7 @@
         <v>2525</v>
       </c>
       <c r="D57" s="7">
-        <v>2638882</v>
+        <v>2638881</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>60</v>
@@ -5576,7 +5582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B78109E-E478-4756-BBD6-E8B6C6FE7465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16399A35-690F-4CDF-B422-DDBA68E76DDE}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5697,7 +5703,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>13431</v>
+        <v>16565</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>397</v>
@@ -5706,37 +5712,37 @@
         <v>398</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>4839</v>
+        <v>5067</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>18270</v>
+        <v>21632</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,46 +5754,46 @@
         <v>90</v>
       </c>
       <c r="D5" s="7">
-        <v>66624</v>
+        <v>81478</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
       </c>
       <c r="I5" s="7">
-        <v>64131</v>
+        <v>69511</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M5" s="7">
         <v>216</v>
       </c>
       <c r="N5" s="7">
-        <v>130755</v>
+        <v>150989</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>391</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,46 +5805,46 @@
         <v>62</v>
       </c>
       <c r="D6" s="7">
-        <v>56950</v>
+        <v>71373</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>204</v>
+        <v>415</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H6" s="7">
         <v>148</v>
       </c>
       <c r="I6" s="7">
-        <v>73300</v>
+        <v>78038</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>416</v>
+        <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M6" s="7">
         <v>210</v>
       </c>
       <c r="N6" s="7">
-        <v>130250</v>
+        <v>149411</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,46 +5856,46 @@
         <v>54</v>
       </c>
       <c r="D7" s="7">
-        <v>42691</v>
+        <v>50230</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H7" s="7">
         <v>82</v>
       </c>
       <c r="I7" s="7">
-        <v>39872</v>
+        <v>41986</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>426</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M7" s="7">
         <v>136</v>
       </c>
       <c r="N7" s="7">
-        <v>82563</v>
+        <v>92216</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,46 +5907,46 @@
         <v>101</v>
       </c>
       <c r="D8" s="7">
-        <v>73154</v>
+        <v>82339</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>289</v>
+        <v>432</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="H8" s="7">
         <v>165</v>
       </c>
       <c r="I8" s="7">
-        <v>84936</v>
+        <v>90362</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="M8" s="7">
         <v>266</v>
       </c>
       <c r="N8" s="7">
-        <v>158090</v>
+        <v>172701</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,7 +5958,7 @@
         <v>324</v>
       </c>
       <c r="D9" s="7">
-        <v>252850</v>
+        <v>301984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -5967,7 +5973,7 @@
         <v>531</v>
       </c>
       <c r="I9" s="7">
-        <v>267079</v>
+        <v>284964</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -5982,7 +5988,7 @@
         <v>855</v>
       </c>
       <c r="N9" s="7">
-        <v>519929</v>
+        <v>586948</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6005,46 +6011,46 @@
         <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>63830</v>
+        <v>62845</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>442</v>
       </c>
       <c r="H10" s="7">
         <v>102</v>
       </c>
       <c r="I10" s="7">
-        <v>73970</v>
+        <v>69213</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>438</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
       </c>
       <c r="N10" s="7">
-        <v>137800</v>
+        <v>132058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>440</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,46 +6062,46 @@
         <v>133</v>
       </c>
       <c r="D11" s="7">
-        <v>162917</v>
+        <v>159803</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H11" s="7">
         <v>261</v>
       </c>
       <c r="I11" s="7">
-        <v>193130</v>
+        <v>179357</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M11" s="7">
         <v>394</v>
       </c>
       <c r="N11" s="7">
-        <v>356047</v>
+        <v>339160</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,46 +6113,46 @@
         <v>69</v>
       </c>
       <c r="D12" s="7">
-        <v>84614</v>
+        <v>82553</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H12" s="7">
         <v>129</v>
       </c>
       <c r="I12" s="7">
-        <v>96103</v>
+        <v>88990</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M12" s="7">
         <v>198</v>
       </c>
       <c r="N12" s="7">
-        <v>180717</v>
+        <v>171544</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,46 +6164,46 @@
         <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>30370</v>
+        <v>29767</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>28681</v>
+        <v>26580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
       </c>
       <c r="N13" s="7">
-        <v>59052</v>
+        <v>56347</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>470</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,46 +6215,46 @@
         <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>48516</v>
+        <v>46566</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>466</v>
+        <v>423</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
       </c>
       <c r="I14" s="7">
-        <v>74380</v>
+        <v>68843</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>477</v>
       </c>
       <c r="M14" s="7">
         <v>140</v>
       </c>
       <c r="N14" s="7">
-        <v>122897</v>
+        <v>115409</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,7 +6266,7 @@
         <v>313</v>
       </c>
       <c r="D15" s="7">
-        <v>390247</v>
+        <v>381534</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -6275,7 +6281,7 @@
         <v>632</v>
       </c>
       <c r="I15" s="7">
-        <v>466264</v>
+        <v>432983</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -6290,7 +6296,7 @@
         <v>945</v>
       </c>
       <c r="N15" s="7">
-        <v>856511</v>
+        <v>814517</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -6313,46 +6319,46 @@
         <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>31966</v>
+        <v>32295</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>474</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>28557</v>
+        <v>26613</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
       </c>
       <c r="N16" s="7">
-        <v>60523</v>
+        <v>58907</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>486</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,46 +6370,46 @@
         <v>57</v>
       </c>
       <c r="D17" s="7">
-        <v>54589</v>
+        <v>53996</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
       </c>
       <c r="I17" s="7">
-        <v>65505</v>
+        <v>61476</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>484</v>
+        <v>48</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="M17" s="7">
         <v>146</v>
       </c>
       <c r="N17" s="7">
-        <v>120095</v>
+        <v>115472</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,46 +6421,46 @@
         <v>105</v>
       </c>
       <c r="D18" s="7">
-        <v>94313</v>
+        <v>91925</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="H18" s="7">
         <v>163</v>
       </c>
       <c r="I18" s="7">
-        <v>113028</v>
+        <v>105700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="M18" s="7">
         <v>268</v>
       </c>
       <c r="N18" s="7">
-        <v>207340</v>
+        <v>197626</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,46 +6472,46 @@
         <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>41547</v>
+        <v>40049</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
       </c>
       <c r="I19" s="7">
-        <v>70051</v>
+        <v>65351</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="M19" s="7">
         <v>159</v>
       </c>
       <c r="N19" s="7">
-        <v>111598</v>
+        <v>105400</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>504</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,46 +6523,46 @@
         <v>97</v>
       </c>
       <c r="D20" s="7">
-        <v>79338</v>
+        <v>76938</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>295</v>
+        <v>513</v>
       </c>
       <c r="H20" s="7">
         <v>132</v>
       </c>
       <c r="I20" s="7">
-        <v>86097</v>
+        <v>80549</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="M20" s="7">
         <v>229</v>
       </c>
       <c r="N20" s="7">
-        <v>165435</v>
+        <v>157487</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,7 +6574,7 @@
         <v>342</v>
       </c>
       <c r="D21" s="7">
-        <v>301753</v>
+        <v>295204</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -6583,7 +6589,7 @@
         <v>525</v>
       </c>
       <c r="I21" s="7">
-        <v>363238</v>
+        <v>339688</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -6598,7 +6604,7 @@
         <v>867</v>
       </c>
       <c r="N21" s="7">
-        <v>664991</v>
+        <v>634893</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6621,46 +6627,46 @@
         <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>23331</v>
+        <v>22418</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
       </c>
       <c r="I22" s="7">
-        <v>33869</v>
+        <v>31022</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
       </c>
       <c r="N22" s="7">
-        <v>57200</v>
+        <v>53440</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,46 +6678,46 @@
         <v>54</v>
       </c>
       <c r="D23" s="7">
-        <v>60078</v>
+        <v>58278</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>529</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>522</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="H23" s="7">
         <v>104</v>
       </c>
       <c r="I23" s="7">
-        <v>73628</v>
+        <v>68455</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>524</v>
+        <v>344</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>525</v>
+        <v>223</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>531</v>
       </c>
       <c r="M23" s="7">
         <v>158</v>
       </c>
       <c r="N23" s="7">
-        <v>133706</v>
+        <v>126732</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,46 +6729,46 @@
         <v>51</v>
       </c>
       <c r="D24" s="7">
-        <v>61936</v>
+        <v>59443</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>44</v>
+        <v>506</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="H24" s="7">
         <v>129</v>
       </c>
       <c r="I24" s="7">
-        <v>91647</v>
+        <v>108856</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>294</v>
+        <v>539</v>
       </c>
       <c r="M24" s="7">
         <v>180</v>
       </c>
       <c r="N24" s="7">
-        <v>153583</v>
+        <v>168299</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>534</v>
+        <v>285</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>369</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,46 +6780,46 @@
         <v>48</v>
       </c>
       <c r="D25" s="7">
-        <v>53322</v>
+        <v>51361</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
       </c>
       <c r="I25" s="7">
-        <v>48195</v>
+        <v>44506</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
       </c>
       <c r="N25" s="7">
-        <v>101518</v>
+        <v>95866</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>154</v>
+        <v>549</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6825,46 +6831,46 @@
         <v>79</v>
       </c>
       <c r="D26" s="7">
-        <v>70994</v>
+        <v>67277</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>229</v>
+        <v>551</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="H26" s="7">
         <v>188</v>
       </c>
       <c r="I26" s="7">
-        <v>119222</v>
+        <v>109887</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="M26" s="7">
         <v>267</v>
       </c>
       <c r="N26" s="7">
-        <v>190217</v>
+        <v>177163</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,7 +6882,7 @@
         <v>253</v>
       </c>
       <c r="D27" s="7">
-        <v>269661</v>
+        <v>258776</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6891,7 +6897,7 @@
         <v>542</v>
       </c>
       <c r="I27" s="7">
-        <v>366562</v>
+        <v>362726</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6906,7 +6912,7 @@
         <v>795</v>
       </c>
       <c r="N27" s="7">
-        <v>636224</v>
+        <v>621501</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6929,13 +6935,13 @@
         <v>12</v>
       </c>
       <c r="D28" s="7">
-        <v>7965</v>
+        <v>7207</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>99</v>
@@ -6944,31 +6950,31 @@
         <v>16</v>
       </c>
       <c r="I28" s="7">
-        <v>9073</v>
+        <v>8136</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
       </c>
       <c r="N28" s="7">
-        <v>17038</v>
+        <v>15343</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,46 +6986,46 @@
         <v>44</v>
       </c>
       <c r="D29" s="7">
-        <v>29909</v>
+        <v>27218</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>559</v>
+        <v>378</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="H29" s="7">
         <v>74</v>
       </c>
       <c r="I29" s="7">
-        <v>35004</v>
+        <v>31818</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>562</v>
+        <v>504</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
       </c>
       <c r="N29" s="7">
-        <v>64912</v>
+        <v>59036</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,46 +7037,46 @@
         <v>114</v>
       </c>
       <c r="D30" s="7">
-        <v>79122</v>
+        <v>72263</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="H30" s="7">
         <v>184</v>
       </c>
       <c r="I30" s="7">
-        <v>82757</v>
+        <v>74975</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="M30" s="7">
         <v>298</v>
       </c>
       <c r="N30" s="7">
-        <v>161879</v>
+        <v>147237</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7082,46 +7088,46 @@
         <v>40</v>
       </c>
       <c r="D31" s="7">
-        <v>27123</v>
+        <v>24421</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>577</v>
+        <v>91</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="H31" s="7">
         <v>101</v>
       </c>
       <c r="I31" s="7">
-        <v>43667</v>
+        <v>39473</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>580</v>
+        <v>197</v>
       </c>
       <c r="M31" s="7">
         <v>141</v>
       </c>
       <c r="N31" s="7">
-        <v>70790</v>
+        <v>63894</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>581</v>
+        <v>390</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>582</v>
+        <v>422</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7133,46 +7139,46 @@
         <v>24</v>
       </c>
       <c r="D32" s="7">
-        <v>15303</v>
+        <v>13938</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>584</v>
+        <v>405</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="H32" s="7">
         <v>72</v>
       </c>
       <c r="I32" s="7">
-        <v>31849</v>
+        <v>28874</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>588</v>
+        <v>390</v>
       </c>
       <c r="M32" s="7">
         <v>96</v>
       </c>
       <c r="N32" s="7">
-        <v>47151</v>
+        <v>42811</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>306</v>
+        <v>113</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>589</v>
+        <v>318</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7184,7 +7190,7 @@
         <v>234</v>
       </c>
       <c r="D33" s="7">
-        <v>159422</v>
+        <v>145047</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -7199,7 +7205,7 @@
         <v>447</v>
       </c>
       <c r="I33" s="7">
-        <v>202348</v>
+        <v>183275</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -7214,7 +7220,7 @@
         <v>681</v>
       </c>
       <c r="N33" s="7">
-        <v>361770</v>
+        <v>328322</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -7237,46 +7243,46 @@
         <v>37</v>
       </c>
       <c r="D34" s="7">
-        <v>35103</v>
+        <v>34768</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>591</v>
+        <v>354</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H34" s="7">
         <v>31</v>
       </c>
       <c r="I34" s="7">
-        <v>24897</v>
+        <v>23244</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>108</v>
+        <v>598</v>
       </c>
       <c r="M34" s="7">
         <v>68</v>
       </c>
       <c r="N34" s="7">
-        <v>60000</v>
+        <v>58012</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7288,46 +7294,46 @@
         <v>66</v>
       </c>
       <c r="D35" s="7">
-        <v>62850</v>
+        <v>61624</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>344</v>
+        <v>212</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="H35" s="7">
         <v>79</v>
       </c>
       <c r="I35" s="7">
-        <v>52466</v>
+        <v>49000</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>233</v>
+        <v>604</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>600</v>
+        <v>345</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="M35" s="7">
         <v>145</v>
       </c>
       <c r="N35" s="7">
-        <v>115316</v>
+        <v>110624</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,46 +7345,46 @@
         <v>95</v>
       </c>
       <c r="D36" s="7">
-        <v>68684</v>
+        <v>66105</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>364</v>
+        <v>609</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>605</v>
+        <v>176</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>606</v>
+        <v>499</v>
       </c>
       <c r="H36" s="7">
         <v>121</v>
       </c>
       <c r="I36" s="7">
-        <v>73701</v>
+        <v>68832</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="M36" s="7">
         <v>216</v>
       </c>
       <c r="N36" s="7">
-        <v>142385</v>
+        <v>134936</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>259</v>
+        <v>613</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,46 +7396,46 @@
         <v>67</v>
       </c>
       <c r="D37" s="7">
-        <v>41393</v>
+        <v>39970</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>383</v>
+        <v>616</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>612</v>
+        <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="H37" s="7">
         <v>90</v>
       </c>
       <c r="I37" s="7">
-        <v>46648</v>
+        <v>43403</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>221</v>
+        <v>619</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>457</v>
+        <v>620</v>
       </c>
       <c r="M37" s="7">
         <v>157</v>
       </c>
       <c r="N37" s="7">
-        <v>88041</v>
+        <v>83374</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>381</v>
+        <v>94</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7441,46 +7447,46 @@
         <v>90</v>
       </c>
       <c r="D38" s="7">
-        <v>56874</v>
+        <v>54682</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>618</v>
+        <v>167</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="H38" s="7">
         <v>130</v>
       </c>
       <c r="I38" s="7">
-        <v>68220</v>
+        <v>63503</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="M38" s="7">
         <v>220</v>
       </c>
       <c r="N38" s="7">
-        <v>125094</v>
+        <v>118185</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7492,7 +7498,7 @@
         <v>355</v>
       </c>
       <c r="D39" s="7">
-        <v>264904</v>
+        <v>257149</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -7507,7 +7513,7 @@
         <v>451</v>
       </c>
       <c r="I39" s="7">
-        <v>265933</v>
+        <v>247982</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -7522,7 +7528,7 @@
         <v>806</v>
       </c>
       <c r="N39" s="7">
-        <v>530836</v>
+        <v>505131</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -7545,46 +7551,46 @@
         <v>33</v>
       </c>
       <c r="D40" s="7">
-        <v>29138</v>
+        <v>28053</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="H40" s="7">
         <v>42</v>
       </c>
       <c r="I40" s="7">
-        <v>33061</v>
+        <v>30693</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="M40" s="7">
         <v>75</v>
       </c>
       <c r="N40" s="7">
-        <v>62199</v>
+        <v>58746</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>460</v>
+        <v>637</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>15</v>
+        <v>639</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7596,46 +7602,46 @@
         <v>81</v>
       </c>
       <c r="D41" s="7">
-        <v>91100</v>
+        <v>91587</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>632</v>
+        <v>462</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="H41" s="7">
         <v>156</v>
       </c>
       <c r="I41" s="7">
-        <v>115756</v>
+        <v>107903</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>504</v>
+        <v>195</v>
       </c>
       <c r="M41" s="7">
         <v>237</v>
       </c>
       <c r="N41" s="7">
-        <v>206856</v>
+        <v>199489</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>636</v>
+        <v>383</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7647,46 +7653,46 @@
         <v>169</v>
       </c>
       <c r="D42" s="7">
-        <v>173371</v>
+        <v>169689</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="H42" s="7">
         <v>266</v>
       </c>
       <c r="I42" s="7">
-        <v>303792</v>
+        <v>384136</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="M42" s="7">
         <v>435</v>
       </c>
       <c r="N42" s="7">
-        <v>477163</v>
+        <v>553826</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,46 +7704,46 @@
         <v>99</v>
       </c>
       <c r="D43" s="7">
-        <v>91069</v>
+        <v>88154</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>287</v>
+        <v>654</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>579</v>
+        <v>656</v>
       </c>
       <c r="H43" s="7">
         <v>151</v>
       </c>
       <c r="I43" s="7">
-        <v>103871</v>
+        <v>96861</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>649</v>
+        <v>150</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>651</v>
+        <v>459</v>
       </c>
       <c r="M43" s="7">
         <v>250</v>
       </c>
       <c r="N43" s="7">
-        <v>194940</v>
+        <v>185015</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>586</v>
+        <v>658</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>356</v>
+        <v>160</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,46 +7755,46 @@
         <v>126</v>
       </c>
       <c r="D44" s="7">
-        <v>121418</v>
+        <v>116977</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>654</v>
+        <v>410</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="H44" s="7">
         <v>255</v>
       </c>
       <c r="I44" s="7">
-        <v>175828</v>
+        <v>162425</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>408</v>
+        <v>662</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>329</v>
+        <v>205</v>
       </c>
       <c r="M44" s="7">
         <v>381</v>
       </c>
       <c r="N44" s="7">
-        <v>297246</v>
+        <v>279402</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>289</v>
+        <v>664</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,7 +7806,7 @@
         <v>508</v>
       </c>
       <c r="D45" s="7">
-        <v>506096</v>
+        <v>494459</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>60</v>
@@ -7815,7 +7821,7 @@
         <v>870</v>
       </c>
       <c r="I45" s="7">
-        <v>732309</v>
+        <v>782019</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>60</v>
@@ -7830,7 +7836,7 @@
         <v>1378</v>
       </c>
       <c r="N45" s="7">
-        <v>1238405</v>
+        <v>1276478</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -7853,46 +7859,46 @@
         <v>19</v>
       </c>
       <c r="D46" s="7">
-        <v>17737</v>
+        <v>15302</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="H46" s="7">
         <v>30</v>
       </c>
       <c r="I46" s="7">
-        <v>24709</v>
+        <v>20694</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="M46" s="7">
         <v>49</v>
       </c>
       <c r="N46" s="7">
-        <v>42446</v>
+        <v>35996</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7904,46 +7910,46 @@
         <v>155</v>
       </c>
       <c r="D47" s="7">
-        <v>158523</v>
+        <v>134886</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="H47" s="7">
         <v>201</v>
       </c>
       <c r="I47" s="7">
-        <v>157904</v>
+        <v>132248</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="M47" s="7">
         <v>356</v>
       </c>
       <c r="N47" s="7">
-        <v>316427</v>
+        <v>267134</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7955,46 +7961,46 @@
         <v>180</v>
       </c>
       <c r="D48" s="7">
-        <v>166717</v>
+        <v>141520</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="H48" s="7">
         <v>286</v>
       </c>
       <c r="I48" s="7">
-        <v>208081</v>
+        <v>174702</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>682</v>
+        <v>76</v>
       </c>
       <c r="M48" s="7">
         <v>466</v>
       </c>
       <c r="N48" s="7">
-        <v>374797</v>
+        <v>316222</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8006,46 +8012,46 @@
         <v>135</v>
       </c>
       <c r="D49" s="7">
-        <v>118956</v>
+        <v>101712</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>686</v>
+        <v>365</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>687</v>
+        <v>290</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>688</v>
+        <v>216</v>
       </c>
       <c r="H49" s="7">
         <v>192</v>
       </c>
       <c r="I49" s="7">
-        <v>134667</v>
+        <v>113052</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>362</v>
+        <v>694</v>
       </c>
       <c r="M49" s="7">
         <v>327</v>
       </c>
       <c r="N49" s="7">
-        <v>253623</v>
+        <v>214764</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8057,43 +8063,43 @@
         <v>31</v>
       </c>
       <c r="D50" s="7">
-        <v>28792</v>
+        <v>24710</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="H50" s="7">
         <v>94</v>
       </c>
       <c r="I50" s="7">
-        <v>69956</v>
+        <v>58609</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>699</v>
+        <v>510</v>
       </c>
       <c r="M50" s="7">
         <v>125</v>
       </c>
       <c r="N50" s="7">
-        <v>98747</v>
+        <v>83319</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>105</v>
@@ -8108,7 +8114,7 @@
         <v>520</v>
       </c>
       <c r="D51" s="7">
-        <v>490724</v>
+        <v>418130</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>60</v>
@@ -8123,7 +8129,7 @@
         <v>803</v>
       </c>
       <c r="I51" s="7">
-        <v>595317</v>
+        <v>499305</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>60</v>
@@ -8138,7 +8144,7 @@
         <v>1323</v>
       </c>
       <c r="N51" s="7">
-        <v>1086040</v>
+        <v>917435</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>60</v>
@@ -8161,46 +8167,46 @@
         <v>214</v>
       </c>
       <c r="D52" s="7">
-        <v>222500</v>
+        <v>219452</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>702</v>
+        <v>526</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>703</v>
+        <v>18</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>304</v>
+        <v>705</v>
       </c>
       <c r="H52" s="7">
         <v>304</v>
       </c>
       <c r="I52" s="7">
-        <v>232976</v>
+        <v>214681</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M52" s="7">
         <v>518</v>
       </c>
       <c r="N52" s="7">
-        <v>455475</v>
+        <v>434133</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>709</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8212,46 +8218,46 @@
         <v>680</v>
       </c>
       <c r="D53" s="7">
-        <v>686590</v>
+        <v>668869</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H53" s="7">
         <v>1090</v>
       </c>
       <c r="I53" s="7">
-        <v>757524</v>
+        <v>699768</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M53" s="7">
         <v>1770</v>
       </c>
       <c r="N53" s="7">
-        <v>1444115</v>
+        <v>1368637</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>718</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8263,46 +8269,46 @@
         <v>845</v>
       </c>
       <c r="D54" s="7">
-        <v>785706</v>
+        <v>754872</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>375</v>
+        <v>719</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>688</v>
+        <v>720</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H54" s="7">
         <v>1426</v>
       </c>
       <c r="I54" s="7">
-        <v>1042409</v>
+        <v>1084229</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="M54" s="7">
         <v>2271</v>
       </c>
       <c r="N54" s="7">
-        <v>1828115</v>
+        <v>1839101</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8314,46 +8320,46 @@
         <v>520</v>
       </c>
       <c r="D55" s="7">
-        <v>446471</v>
+        <v>425664</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>726</v>
+        <v>533</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>152</v>
+        <v>728</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H55" s="7">
         <v>847</v>
       </c>
       <c r="I55" s="7">
-        <v>515653</v>
+        <v>471211</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>167</v>
+        <v>732</v>
       </c>
       <c r="M55" s="7">
         <v>1367</v>
       </c>
       <c r="N55" s="7">
-        <v>962124</v>
+        <v>896876</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8365,46 +8371,46 @@
         <v>590</v>
       </c>
       <c r="D56" s="7">
-        <v>494388</v>
+        <v>483425</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>558</v>
+        <v>736</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="H56" s="7">
         <v>1134</v>
       </c>
       <c r="I56" s="7">
-        <v>710489</v>
+        <v>663053</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>736</v>
+        <v>440</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>691</v>
+        <v>121</v>
       </c>
       <c r="M56" s="7">
         <v>1724</v>
       </c>
       <c r="N56" s="7">
-        <v>1204877</v>
+        <v>1146478</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>739</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8416,7 +8422,7 @@
         <v>2849</v>
       </c>
       <c r="D57" s="7">
-        <v>2635656</v>
+        <v>2552282</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>60</v>
@@ -8431,7 +8437,7 @@
         <v>4801</v>
       </c>
       <c r="I57" s="7">
-        <v>3259050</v>
+        <v>3132942</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>60</v>
@@ -8446,7 +8452,7 @@
         <v>7650</v>
       </c>
       <c r="N57" s="7">
-        <v>5894706</v>
+        <v>5685225</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>60</v>
